--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Plxna3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.4968092898099</v>
+        <v>50.74268466666666</v>
       </c>
       <c r="H2">
-        <v>50.4968092898099</v>
+        <v>152.228054</v>
       </c>
       <c r="I2">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="J2">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.446341246375333</v>
+        <v>0.453014</v>
       </c>
       <c r="N2">
-        <v>0.446341246375333</v>
+        <v>1.359042</v>
       </c>
       <c r="O2">
-        <v>0.04593667259736994</v>
+        <v>0.04524798776697361</v>
       </c>
       <c r="P2">
-        <v>0.04593667259736994</v>
+        <v>0.04524798776697361</v>
       </c>
       <c r="Q2">
-        <v>22.53880879639125</v>
+        <v>22.98714655158533</v>
       </c>
       <c r="R2">
-        <v>22.53880879639125</v>
+        <v>206.884318964268</v>
       </c>
       <c r="S2">
-        <v>0.04337009631733153</v>
+        <v>0.0425147957761248</v>
       </c>
       <c r="T2">
-        <v>0.04337009631733153</v>
+        <v>0.0425147957761248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.4968092898099</v>
+        <v>50.74268466666666</v>
       </c>
       <c r="H3">
-        <v>50.4968092898099</v>
+        <v>152.228054</v>
       </c>
       <c r="I3">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="J3">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.61983191997367</v>
+        <v>5.660045</v>
       </c>
       <c r="N3">
-        <v>5.61983191997367</v>
+        <v>16.980135</v>
       </c>
       <c r="O3">
-        <v>0.5783834253646212</v>
+        <v>0.5653371571750986</v>
       </c>
       <c r="P3">
-        <v>0.5783834253646212</v>
+        <v>0.5653371571750986</v>
       </c>
       <c r="Q3">
-        <v>283.7835807036967</v>
+        <v>287.2058786341433</v>
       </c>
       <c r="R3">
-        <v>283.7835807036967</v>
+        <v>2584.85290770729</v>
       </c>
       <c r="S3">
-        <v>0.5460679550361673</v>
+        <v>0.5311881249998374</v>
       </c>
       <c r="T3">
-        <v>0.5460679550361673</v>
+        <v>0.5311881249998374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.4968092898099</v>
+        <v>50.74268466666666</v>
       </c>
       <c r="H4">
-        <v>50.4968092898099</v>
+        <v>152.228054</v>
       </c>
       <c r="I4">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="J4">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.650904745508523</v>
+        <v>0.6888489999999999</v>
       </c>
       <c r="N4">
-        <v>0.650904745508523</v>
+        <v>2.066547</v>
       </c>
       <c r="O4">
-        <v>0.06698999572483127</v>
+        <v>0.0688036818404994</v>
       </c>
       <c r="P4">
-        <v>0.06698999572483127</v>
+        <v>0.06880368184049941</v>
       </c>
       <c r="Q4">
-        <v>32.86861279977613</v>
+        <v>34.95404758994866</v>
       </c>
       <c r="R4">
-        <v>32.86861279977613</v>
+        <v>314.586428309538</v>
       </c>
       <c r="S4">
-        <v>0.06324712702525831</v>
+        <v>0.06464761476596262</v>
       </c>
       <c r="T4">
-        <v>0.06324712702525831</v>
+        <v>0.06464761476596263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.4968092898099</v>
+        <v>50.74268466666666</v>
       </c>
       <c r="H5">
-        <v>50.4968092898099</v>
+        <v>152.228054</v>
       </c>
       <c r="I5">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="J5">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.824219729336987</v>
+        <v>0.8792456666666667</v>
       </c>
       <c r="N5">
-        <v>0.824219729336987</v>
+        <v>2.637737</v>
       </c>
       <c r="O5">
-        <v>0.08482727545866904</v>
+        <v>0.08782089994900352</v>
       </c>
       <c r="P5">
-        <v>0.08482727545866904</v>
+        <v>0.08782089994900352</v>
       </c>
       <c r="Q5">
-        <v>41.62046648522857</v>
+        <v>44.61528560819978</v>
       </c>
       <c r="R5">
-        <v>41.62046648522857</v>
+        <v>401.537570473798</v>
       </c>
       <c r="S5">
-        <v>0.08008780129168355</v>
+        <v>0.08251610315658243</v>
       </c>
       <c r="T5">
-        <v>0.08008780129168355</v>
+        <v>0.08251610315658243</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.4968092898099</v>
+        <v>50.74268466666666</v>
       </c>
       <c r="H6">
-        <v>50.4968092898099</v>
+        <v>152.228054</v>
       </c>
       <c r="I6">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="J6">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.17514939639279</v>
+        <v>2.330650666666667</v>
       </c>
       <c r="N6">
-        <v>2.17514939639279</v>
+        <v>6.991952</v>
       </c>
       <c r="O6">
-        <v>0.2238626308545086</v>
+        <v>0.2327902732684248</v>
       </c>
       <c r="P6">
-        <v>0.2238626308545086</v>
+        <v>0.2327902732684248</v>
       </c>
       <c r="Q6">
-        <v>109.8381042464918</v>
+        <v>118.2634718468231</v>
       </c>
       <c r="R6">
-        <v>109.8381042464918</v>
+        <v>1064.371246621408</v>
       </c>
       <c r="S6">
-        <v>0.2113549657178945</v>
+        <v>0.2187286422027188</v>
       </c>
       <c r="T6">
-        <v>0.2113549657178945</v>
+        <v>0.2187286422027188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.03718674686797</v>
+        <v>2.090896333333333</v>
       </c>
       <c r="H7">
-        <v>2.03718674686797</v>
+        <v>6.272689</v>
       </c>
       <c r="I7">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="J7">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.446341246375333</v>
+        <v>0.453014</v>
       </c>
       <c r="N7">
-        <v>0.446341246375333</v>
+        <v>1.359042</v>
       </c>
       <c r="O7">
-        <v>0.04593667259736994</v>
+        <v>0.04524798776697361</v>
       </c>
       <c r="P7">
-        <v>0.04593667259736994</v>
+        <v>0.04524798776697361</v>
       </c>
       <c r="Q7">
-        <v>0.9092804716963597</v>
+        <v>0.9472053115486667</v>
       </c>
       <c r="R7">
-        <v>0.9092804716963597</v>
+        <v>8.524847803938</v>
       </c>
       <c r="S7">
-        <v>0.001749674616488778</v>
+        <v>0.001751859035143053</v>
       </c>
       <c r="T7">
-        <v>0.001749674616488778</v>
+        <v>0.001751859035143053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.03718674686797</v>
+        <v>2.090896333333333</v>
       </c>
       <c r="H8">
-        <v>2.03718674686797</v>
+        <v>6.272689</v>
       </c>
       <c r="I8">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="J8">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.61983191997367</v>
+        <v>5.660045</v>
       </c>
       <c r="N8">
-        <v>5.61983191997367</v>
+        <v>16.980135</v>
       </c>
       <c r="O8">
-        <v>0.5783834253646212</v>
+        <v>0.5653371571750986</v>
       </c>
       <c r="P8">
-        <v>0.5783834253646212</v>
+        <v>0.5653371571750986</v>
       </c>
       <c r="Q8">
-        <v>11.44864710699594</v>
+        <v>11.83456733700167</v>
       </c>
       <c r="R8">
-        <v>11.44864710699594</v>
+        <v>106.511106033015</v>
       </c>
       <c r="S8">
-        <v>0.02202995429878501</v>
+        <v>0.02188806741638506</v>
       </c>
       <c r="T8">
-        <v>0.02202995429878501</v>
+        <v>0.02188806741638506</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.03718674686797</v>
+        <v>2.090896333333333</v>
       </c>
       <c r="H9">
-        <v>2.03718674686797</v>
+        <v>6.272689</v>
       </c>
       <c r="I9">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="J9">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.650904745508523</v>
+        <v>0.6888489999999999</v>
       </c>
       <c r="N9">
-        <v>0.650904745508523</v>
+        <v>2.066547</v>
       </c>
       <c r="O9">
-        <v>0.06698999572483127</v>
+        <v>0.0688036818404994</v>
       </c>
       <c r="P9">
-        <v>0.06698999572483127</v>
+        <v>0.06880368184049941</v>
       </c>
       <c r="Q9">
-        <v>1.326014521023432</v>
+        <v>1.440311848320333</v>
       </c>
       <c r="R9">
-        <v>1.326014521023432</v>
+        <v>12.962806634883</v>
       </c>
       <c r="S9">
-        <v>0.0025515712926308</v>
+        <v>0.00266386103850931</v>
       </c>
       <c r="T9">
-        <v>0.0025515712926308</v>
+        <v>0.00266386103850931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.03718674686797</v>
+        <v>2.090896333333333</v>
       </c>
       <c r="H10">
-        <v>2.03718674686797</v>
+        <v>6.272689</v>
       </c>
       <c r="I10">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="J10">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.824219729336987</v>
+        <v>0.8792456666666667</v>
       </c>
       <c r="N10">
-        <v>0.824219729336987</v>
+        <v>2.637737</v>
       </c>
       <c r="O10">
-        <v>0.08482727545866904</v>
+        <v>0.08782089994900352</v>
       </c>
       <c r="P10">
-        <v>0.08482727545866904</v>
+        <v>0.08782089994900352</v>
       </c>
       <c r="Q10">
-        <v>1.679089509112415</v>
+        <v>1.838411540532556</v>
       </c>
       <c r="R10">
-        <v>1.679089509112415</v>
+        <v>16.545703864793</v>
       </c>
       <c r="S10">
-        <v>0.00323097260345392</v>
+        <v>0.003400147600869679</v>
       </c>
       <c r="T10">
-        <v>0.00323097260345392</v>
+        <v>0.003400147600869679</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.03718674686797</v>
+        <v>2.090896333333333</v>
       </c>
       <c r="H11">
-        <v>2.03718674686797</v>
+        <v>6.272689</v>
       </c>
       <c r="I11">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="J11">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.17514939639279</v>
+        <v>2.330650666666667</v>
       </c>
       <c r="N11">
-        <v>2.17514939639279</v>
+        <v>6.991952</v>
       </c>
       <c r="O11">
-        <v>0.2238626308545086</v>
+        <v>0.2327902732684248</v>
       </c>
       <c r="P11">
-        <v>0.2238626308545086</v>
+        <v>0.2327902732684248</v>
       </c>
       <c r="Q11">
-        <v>4.431185522789256</v>
+        <v>4.873148933214222</v>
       </c>
       <c r="R11">
-        <v>4.431185522789256</v>
+        <v>43.858340398928</v>
       </c>
       <c r="S11">
-        <v>0.008526668142022914</v>
+        <v>0.009012903416146476</v>
       </c>
       <c r="T11">
-        <v>0.008526668142022914</v>
+        <v>0.009012903416146476</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.951137558260624</v>
+        <v>0.066695</v>
       </c>
       <c r="H12">
-        <v>0.951137558260624</v>
+        <v>0.200085</v>
       </c>
       <c r="I12">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="J12">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.446341246375333</v>
+        <v>0.453014</v>
       </c>
       <c r="N12">
-        <v>0.446341246375333</v>
+        <v>1.359042</v>
       </c>
       <c r="O12">
-        <v>0.04593667259736994</v>
+        <v>0.04524798776697361</v>
       </c>
       <c r="P12">
-        <v>0.04593667259736994</v>
+        <v>0.04524798776697361</v>
       </c>
       <c r="Q12">
-        <v>0.4245319232284378</v>
+        <v>0.03021376873</v>
       </c>
       <c r="R12">
-        <v>0.4245319232284378</v>
+        <v>0.27192391857</v>
       </c>
       <c r="S12">
-        <v>0.0008169016635496432</v>
+        <v>5.58804549446972E-05</v>
       </c>
       <c r="T12">
-        <v>0.0008169016635496432</v>
+        <v>5.58804549446972E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.951137558260624</v>
+        <v>0.066695</v>
       </c>
       <c r="H13">
-        <v>0.951137558260624</v>
+        <v>0.200085</v>
       </c>
       <c r="I13">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="J13">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.61983191997367</v>
+        <v>5.660045</v>
       </c>
       <c r="N13">
-        <v>5.61983191997367</v>
+        <v>16.980135</v>
       </c>
       <c r="O13">
-        <v>0.5783834253646212</v>
+        <v>0.5653371571750986</v>
       </c>
       <c r="P13">
-        <v>0.5783834253646212</v>
+        <v>0.5653371571750986</v>
       </c>
       <c r="Q13">
-        <v>5.345233210198871</v>
+        <v>0.377496701275</v>
       </c>
       <c r="R13">
-        <v>5.345233210198871</v>
+        <v>3.397470311475</v>
       </c>
       <c r="S13">
-        <v>0.01028551602966888</v>
+        <v>0.0006981812694695057</v>
       </c>
       <c r="T13">
-        <v>0.01028551602966888</v>
+        <v>0.0006981812694695057</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.951137558260624</v>
+        <v>0.066695</v>
       </c>
       <c r="H14">
-        <v>0.951137558260624</v>
+        <v>0.200085</v>
       </c>
       <c r="I14">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="J14">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.650904745508523</v>
+        <v>0.6888489999999999</v>
       </c>
       <c r="N14">
-        <v>0.650904745508523</v>
+        <v>2.066547</v>
       </c>
       <c r="O14">
-        <v>0.06698999572483127</v>
+        <v>0.0688036818404994</v>
       </c>
       <c r="P14">
-        <v>0.06698999572483127</v>
+        <v>0.06880368184049941</v>
       </c>
       <c r="Q14">
-        <v>0.6190999503032294</v>
+        <v>0.045942784055</v>
       </c>
       <c r="R14">
-        <v>0.6190999503032294</v>
+        <v>0.413485056495</v>
       </c>
       <c r="S14">
-        <v>0.001191297406942168</v>
+        <v>8.497131547413482E-05</v>
       </c>
       <c r="T14">
-        <v>0.001191297406942168</v>
+        <v>8.497131547413484E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.951137558260624</v>
+        <v>0.066695</v>
       </c>
       <c r="H15">
-        <v>0.951137558260624</v>
+        <v>0.200085</v>
       </c>
       <c r="I15">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="J15">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.824219729336987</v>
+        <v>0.8792456666666667</v>
       </c>
       <c r="N15">
-        <v>0.824219729336987</v>
+        <v>2.637737</v>
       </c>
       <c r="O15">
-        <v>0.08482727545866904</v>
+        <v>0.08782089994900352</v>
       </c>
       <c r="P15">
-        <v>0.08482727545866904</v>
+        <v>0.08782089994900352</v>
       </c>
       <c r="Q15">
-        <v>0.7839463408318141</v>
+        <v>0.05864128973833334</v>
       </c>
       <c r="R15">
-        <v>0.7839463408318141</v>
+        <v>0.5277716076450001</v>
       </c>
       <c r="S15">
-        <v>0.001508501563531574</v>
+        <v>0.0001084572394263465</v>
       </c>
       <c r="T15">
-        <v>0.001508501563531574</v>
+        <v>0.0001084572394263465</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.066695</v>
+      </c>
+      <c r="H16">
+        <v>0.200085</v>
+      </c>
+      <c r="I16">
+        <v>0.001234982099811391</v>
+      </c>
+      <c r="J16">
+        <v>0.001234982099811391</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.330650666666667</v>
+      </c>
+      <c r="N16">
+        <v>6.991952</v>
+      </c>
+      <c r="O16">
+        <v>0.2327902732684248</v>
+      </c>
+      <c r="P16">
+        <v>0.2327902732684248</v>
+      </c>
+      <c r="Q16">
+        <v>0.1554427462133333</v>
+      </c>
+      <c r="R16">
+        <v>1.39898471592</v>
+      </c>
+      <c r="S16">
+        <v>0.0002874918204967068</v>
+      </c>
+      <c r="T16">
+        <v>0.0002874918204967068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.124742</v>
+      </c>
+      <c r="H17">
+        <v>0.3742259999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="J17">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.453014</v>
+      </c>
+      <c r="N17">
+        <v>1.359042</v>
+      </c>
+      <c r="O17">
+        <v>0.04524798776697361</v>
+      </c>
+      <c r="P17">
+        <v>0.04524798776697361</v>
+      </c>
+      <c r="Q17">
+        <v>0.056509872388</v>
+      </c>
+      <c r="R17">
+        <v>0.5085888514919999</v>
+      </c>
+      <c r="S17">
+        <v>0.0001045151767105693</v>
+      </c>
+      <c r="T17">
+        <v>0.0001045151767105693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.124742</v>
+      </c>
+      <c r="H18">
+        <v>0.3742259999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="J18">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.660045</v>
+      </c>
+      <c r="N18">
+        <v>16.980135</v>
+      </c>
+      <c r="O18">
+        <v>0.5653371571750986</v>
+      </c>
+      <c r="P18">
+        <v>0.5653371571750986</v>
+      </c>
+      <c r="Q18">
+        <v>0.7060453333899999</v>
+      </c>
+      <c r="R18">
+        <v>6.354408000509999</v>
+      </c>
+      <c r="S18">
+        <v>0.001305832939743085</v>
+      </c>
+      <c r="T18">
+        <v>0.001305832939743085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.124742</v>
+      </c>
+      <c r="H19">
+        <v>0.3742259999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="J19">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6888489999999999</v>
+      </c>
+      <c r="N19">
+        <v>2.066547</v>
+      </c>
+      <c r="O19">
+        <v>0.0688036818404994</v>
+      </c>
+      <c r="P19">
+        <v>0.06880368184049941</v>
+      </c>
+      <c r="Q19">
+        <v>0.08592840195799997</v>
+      </c>
+      <c r="R19">
+        <v>0.7733556176219999</v>
+      </c>
+      <c r="S19">
+        <v>0.0001589248344684688</v>
+      </c>
+      <c r="T19">
+        <v>0.0001589248344684688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.124742</v>
+      </c>
+      <c r="H20">
+        <v>0.3742259999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="J20">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.8792456666666667</v>
+      </c>
+      <c r="N20">
+        <v>2.637737</v>
+      </c>
+      <c r="O20">
+        <v>0.08782089994900352</v>
+      </c>
+      <c r="P20">
+        <v>0.08782089994900352</v>
+      </c>
+      <c r="Q20">
+        <v>0.1096788629513333</v>
+      </c>
+      <c r="R20">
+        <v>0.9871097665619999</v>
+      </c>
+      <c r="S20">
+        <v>0.0002028513825702273</v>
+      </c>
+      <c r="T20">
+        <v>0.0002028513825702273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.124742</v>
+      </c>
+      <c r="H21">
+        <v>0.3742259999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="J21">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.330650666666667</v>
+      </c>
+      <c r="N21">
+        <v>6.991952</v>
+      </c>
+      <c r="O21">
+        <v>0.2327902732684248</v>
+      </c>
+      <c r="P21">
+        <v>0.2327902732684248</v>
+      </c>
+      <c r="Q21">
+        <v>0.2907300254613333</v>
+      </c>
+      <c r="R21">
+        <v>2.616570229152</v>
+      </c>
+      <c r="S21">
+        <v>0.0005377060450168709</v>
+      </c>
+      <c r="T21">
+        <v>0.0005377060450168709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9798133333333334</v>
+      </c>
+      <c r="H22">
+        <v>2.93944</v>
+      </c>
+      <c r="I22">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="J22">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.453014</v>
+      </c>
+      <c r="N22">
+        <v>1.359042</v>
+      </c>
+      <c r="O22">
+        <v>0.04524798776697361</v>
+      </c>
+      <c r="P22">
+        <v>0.04524798776697361</v>
+      </c>
+      <c r="Q22">
+        <v>0.4438691573866667</v>
+      </c>
+      <c r="R22">
+        <v>3.994822416480001</v>
+      </c>
+      <c r="S22">
+        <v>0.0008209373240504823</v>
+      </c>
+      <c r="T22">
+        <v>0.0008209373240504823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9798133333333334</v>
+      </c>
+      <c r="H23">
+        <v>2.93944</v>
+      </c>
+      <c r="I23">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="J23">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.660045</v>
+      </c>
+      <c r="N23">
+        <v>16.980135</v>
+      </c>
+      <c r="O23">
+        <v>0.5653371571750986</v>
+      </c>
+      <c r="P23">
+        <v>0.5653371571750986</v>
+      </c>
+      <c r="Q23">
+        <v>5.545787558266667</v>
+      </c>
+      <c r="R23">
+        <v>49.91208802440001</v>
+      </c>
+      <c r="S23">
+        <v>0.01025695054966361</v>
+      </c>
+      <c r="T23">
+        <v>0.01025695054966361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.951137558260624</v>
-      </c>
-      <c r="H16">
-        <v>0.951137558260624</v>
-      </c>
-      <c r="I16">
-        <v>0.01778321365828343</v>
-      </c>
-      <c r="J16">
-        <v>0.01778321365828343</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.17514939639279</v>
-      </c>
-      <c r="N16">
-        <v>2.17514939639279</v>
-      </c>
-      <c r="O16">
-        <v>0.2238626308545086</v>
-      </c>
-      <c r="P16">
-        <v>0.2238626308545086</v>
-      </c>
-      <c r="Q16">
-        <v>2.068866285737108</v>
-      </c>
-      <c r="R16">
-        <v>2.068866285737108</v>
-      </c>
-      <c r="S16">
-        <v>0.003980996994591158</v>
-      </c>
-      <c r="T16">
-        <v>0.003980996994591158</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9798133333333334</v>
+      </c>
+      <c r="H24">
+        <v>2.93944</v>
+      </c>
+      <c r="I24">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="J24">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6888489999999999</v>
+      </c>
+      <c r="N24">
+        <v>2.066547</v>
+      </c>
+      <c r="O24">
+        <v>0.0688036818404994</v>
+      </c>
+      <c r="P24">
+        <v>0.06880368184049941</v>
+      </c>
+      <c r="Q24">
+        <v>0.6749434348533333</v>
+      </c>
+      <c r="R24">
+        <v>6.07449091368</v>
+      </c>
+      <c r="S24">
+        <v>0.001248309886084868</v>
+      </c>
+      <c r="T24">
+        <v>0.001248309886084869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9798133333333334</v>
+      </c>
+      <c r="H25">
+        <v>2.93944</v>
+      </c>
+      <c r="I25">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="J25">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.8792456666666667</v>
+      </c>
+      <c r="N25">
+        <v>2.637737</v>
+      </c>
+      <c r="O25">
+        <v>0.08782089994900352</v>
+      </c>
+      <c r="P25">
+        <v>0.08782089994900352</v>
+      </c>
+      <c r="Q25">
+        <v>0.8614966274755557</v>
+      </c>
+      <c r="R25">
+        <v>7.753469647280001</v>
+      </c>
+      <c r="S25">
+        <v>0.001593340569554839</v>
+      </c>
+      <c r="T25">
+        <v>0.001593340569554839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9798133333333334</v>
+      </c>
+      <c r="H26">
+        <v>2.93944</v>
+      </c>
+      <c r="I26">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="J26">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.330650666666667</v>
+      </c>
+      <c r="N26">
+        <v>6.991952</v>
+      </c>
+      <c r="O26">
+        <v>0.2327902732684248</v>
+      </c>
+      <c r="P26">
+        <v>0.2327902732684248</v>
+      </c>
+      <c r="Q26">
+        <v>2.283602598542223</v>
+      </c>
+      <c r="R26">
+        <v>20.55242338688</v>
+      </c>
+      <c r="S26">
+        <v>0.004223529784045981</v>
+      </c>
+      <c r="T26">
+        <v>0.004223529784045981</v>
       </c>
     </row>
   </sheetData>
